--- a/public/assets/excel/sample_drivers.xlsx
+++ b/public/assets/excel/sample_drivers.xlsx
@@ -20,10 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
-  <si>
-    <t xml:space="preserve">code</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">name_en</t>
   </si>
@@ -64,9 +61,6 @@
     <t xml:space="preserve">status</t>
   </si>
   <si>
-    <t xml:space="preserve">DRV24-001</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jane Smith</t>
   </si>
   <si>
@@ -89,9 +83,6 @@
   </si>
   <si>
     <t xml:space="preserve">السيدة</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Sample data with IDs. Replace with actual IDs from your system.</t>
   </si>
 </sst>
 </file>
@@ -129,6 +120,7 @@
       <color rgb="FF000000"/>
       <name val="Noto Sans Devanagari"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -178,11 +170,11 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -378,13 +370,13 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N3"/>
+  <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.59765625" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="75.41"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.86"/>
@@ -394,7 +386,7 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="11.72"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="15.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="12.86"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.29"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="9.3"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="22.28"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="12" style="1" width="10.57"/>
@@ -442,59 +434,77 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
+      <c r="N1" s="0"/>
+      <c r="O1" s="0"/>
+      <c r="P1" s="0"/>
+      <c r="Q1" s="0"/>
+      <c r="R1" s="0"/>
+      <c r="S1" s="0"/>
+      <c r="T1" s="0"/>
+      <c r="U1" s="0"/>
+      <c r="V1" s="0"/>
+      <c r="W1" s="0"/>
+      <c r="X1" s="0"/>
+      <c r="Y1" s="0"/>
+      <c r="Z1" s="0"/>
+      <c r="AA1" s="0"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1" t="n">
+        <v>67890</v>
+      </c>
+      <c r="D2" s="1" t="n">
+        <v>987654321</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>67890</v>
-      </c>
-      <c r="E2" s="1" t="n">
-        <v>987654321</v>
-      </c>
-      <c r="F2" s="1" t="s">
+      <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="H2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="K2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="L2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="J2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="N2" s="1" t="n">
-        <v>1</v>
-      </c>
+      <c r="N2" s="0"/>
+      <c r="O2" s="0"/>
+      <c r="P2" s="0"/>
+      <c r="Q2" s="0"/>
+      <c r="R2" s="0"/>
+      <c r="S2" s="0"/>
+      <c r="T2" s="0"/>
+      <c r="U2" s="0"/>
+      <c r="V2" s="0"/>
+      <c r="W2" s="0"/>
+      <c r="X2" s="0"/>
+      <c r="Y2" s="0"/>
+      <c r="Z2" s="0"/>
+      <c r="AA2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
+    <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>

--- a/public/assets/excel/sample_drivers.xlsx
+++ b/public/assets/excel/sample_drivers.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t xml:space="preserve">name_en</t>
   </si>
@@ -34,9 +34,6 @@
     <t xml:space="preserve">phone_number</t>
   </si>
   <si>
-    <t xml:space="preserve">driver_id</t>
-  </si>
-  <si>
     <t xml:space="preserve">car_type</t>
   </si>
   <si>
@@ -58,16 +55,10 @@
     <t xml:space="preserve">title_ar</t>
   </si>
   <si>
-    <t xml:space="preserve">status</t>
-  </si>
-  <si>
     <t xml:space="preserve">Jane Smith</t>
   </si>
   <si>
     <t xml:space="preserve">جين سميث</t>
-  </si>
-  <si>
-    <t xml:space="preserve">D12345678</t>
   </si>
   <si>
     <t xml:space="preserve">Toyota Camry</t>
@@ -165,12 +156,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -372,8 +367,8 @@
   </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A3" activeCellId="0" sqref="A3"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -428,33 +423,29 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="0"/>
-      <c r="O1" s="0"/>
-      <c r="P1" s="0"/>
-      <c r="Q1" s="0"/>
-      <c r="R1" s="0"/>
-      <c r="S1" s="0"/>
-      <c r="T1" s="0"/>
-      <c r="U1" s="0"/>
-      <c r="V1" s="0"/>
-      <c r="W1" s="0"/>
-      <c r="X1" s="0"/>
-      <c r="Y1" s="0"/>
-      <c r="Z1" s="0"/>
-      <c r="AA1" s="0"/>
+      <c r="L1" s="0"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
+      <c r="X1" s="2"/>
+      <c r="Y1" s="2"/>
+      <c r="Z1" s="2"/>
+      <c r="AA1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="n">
         <v>67890</v>
@@ -463,46 +454,42 @@
         <v>987654321</v>
       </c>
       <c r="E2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="I2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="I2" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="M2" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="N2" s="0"/>
-      <c r="O2" s="0"/>
-      <c r="P2" s="0"/>
-      <c r="Q2" s="0"/>
-      <c r="R2" s="0"/>
-      <c r="S2" s="0"/>
-      <c r="T2" s="0"/>
-      <c r="U2" s="0"/>
-      <c r="V2" s="0"/>
-      <c r="W2" s="0"/>
-      <c r="X2" s="0"/>
-      <c r="Y2" s="0"/>
-      <c r="Z2" s="0"/>
-      <c r="AA2" s="0"/>
+      <c r="L2" s="0"/>
+      <c r="M2" s="2"/>
+      <c r="N2" s="2"/>
+      <c r="O2" s="2"/>
+      <c r="P2" s="2"/>
+      <c r="Q2" s="2"/>
+      <c r="R2" s="2"/>
+      <c r="S2" s="2"/>
+      <c r="T2" s="2"/>
+      <c r="U2" s="2"/>
+      <c r="V2" s="2"/>
+      <c r="W2" s="2"/>
+      <c r="X2" s="2"/>
+      <c r="Y2" s="2"/>
+      <c r="Z2" s="2"/>
+      <c r="AA2" s="2"/>
     </row>
     <row r="3" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>

--- a/public/assets/excel/sample_drivers.xlsx
+++ b/public/assets/excel/sample_drivers.xlsx
@@ -40,7 +40,7 @@
     <t xml:space="preserve">car_number</t>
   </si>
   <si>
-    <t xml:space="preserve">unit_id</t>
+    <t xml:space="preserve">unit_code</t>
   </si>
   <si>
     <t xml:space="preserve">capacity</t>
@@ -368,7 +368,7 @@
   <dimension ref="A1:AA3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F4" activeCellId="0" sqref="F4"/>
+      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -423,7 +423,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="0"/>
+      <c r="L1" s="2"/>
       <c r="M1" s="2"/>
       <c r="N1" s="2"/>
       <c r="O1" s="2"/>
@@ -474,7 +474,7 @@
       <c r="K2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="0"/>
+      <c r="L2" s="2"/>
       <c r="M2" s="2"/>
       <c r="N2" s="2"/>
       <c r="O2" s="2"/>

--- a/public/assets/excel/sample_drivers.xlsx
+++ b/public/assets/excel/sample_drivers.xlsx
@@ -22,12 +22,18 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
+    <t xml:space="preserve">title_ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">name_ar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">title_en</t>
+  </si>
+  <si>
     <t xml:space="preserve">name_en</t>
   </si>
   <si>
-    <t xml:space="preserve">name_ar</t>
-  </si>
-  <si>
     <t xml:space="preserve">military_number</t>
   </si>
   <si>
@@ -49,18 +55,18 @@
     <t xml:space="preserve">note1</t>
   </si>
   <si>
-    <t xml:space="preserve">title_en</t>
-  </si>
-  <si>
-    <t xml:space="preserve">title_ar</t>
+    <t xml:space="preserve">السيدة</t>
+  </si>
+  <si>
+    <t xml:space="preserve">جين سميث</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ms.</t>
   </si>
   <si>
     <t xml:space="preserve">Jane Smith</t>
   </si>
   <si>
-    <t xml:space="preserve">جين سميث</t>
-  </si>
-  <si>
     <t xml:space="preserve">Toyota Camry</t>
   </si>
   <si>
@@ -68,12 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve">Experienced driver</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ms.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">السيدة</t>
   </si>
 </sst>
 </file>
@@ -367,13 +367,13 @@
   </sheetPr>
   <dimension ref="A1:AA3"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G7" activeCellId="0" sqref="G7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F3" activeCellId="0" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58984375" defaultRowHeight="14.25" customHeight="true" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="75.41"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="7.15"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="12.86"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="10.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="18.7"/>
@@ -441,37 +441,37 @@
       <c r="AA1" s="2"/>
     </row>
     <row r="2" customFormat="false" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="1" t="n">
+      <c r="C2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E2" s="1" t="n">
         <v>67890</v>
       </c>
-      <c r="D2" s="1" t="n">
-        <v>987654321</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="n">
+      <c r="F2" s="1" t="n">
+        <v>971555343434</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="K2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="L2" s="2"/>
